--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/11_Aydın_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/11_Aydın_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C65CE1-E46F-4527-A13B-FBE425227621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA0FA0FD-E828-4C79-AB80-50662D17BD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{A276582A-5E9C-4761-904C-F9C289771964}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{A926C59D-D86F-4FE3-B050-11122E180624}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="125" r:id="rId1"/>
@@ -933,13 +933,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{473B9610-B313-4320-955B-2F470F755E98}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{07D4C2BC-540C-4C6D-B2A3-32CA848C1A8F}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{06EF2AB6-2B9C-41DD-A932-6F153FE0ABDF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{C582927A-FBB8-4483-9BAD-FA5AEF759405}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{56431DB9-91B2-4AA9-8A7E-CC0AA83E2B30}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{CB9A5E66-1FE4-4C68-8D8F-D3C8F33B8A81}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{D2B6B37A-1667-48F0-BF8A-0C9ED0B3626A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E26632A5-1C78-4CF1-8035-4F02E8C0FC79}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{EFACF392-BAF6-4AF2-A101-6DE468953B96}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B457303C-7CAF-42A7-9352-D778DAF0E59D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{E0959CFC-2A73-46A0-8418-FBDB601DFC9C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{45256056-345E-47E6-8895-35DBC5F70A89}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{C11AD5D7-6B15-4A90-8169-C48D72DAE7EA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{58FFB11E-81BE-451B-962B-F57D8ED1A61E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD9449C-2C97-47A6-BEEC-9C9E65BC1A30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB8E88D-F50F-413A-AA44-5EBB67DCFD78}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2611,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C5228-8EB8-43BA-BB27-FA26BB8FF668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A277B67-F5E6-4ED3-A505-9FAC583E1527}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3881,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F6C45A-8618-43DF-B870-342D951CEADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434E8B72-F2CE-43AC-928D-0DED6F7B0262}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5151,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0126A2CE-B539-4611-96D5-5FB43190532E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E9A056-8380-41A5-B279-AC493F8EEBE1}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6413,7 +6413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632DAE19-5D1E-4C9C-9B90-1FBD85578B82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0808D22C-F74A-4DFA-A908-84ABB6240964}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7716,7 +7716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3E8B6E-6FE9-4B4E-AF70-8F265FE7862B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347676E3-8B32-443D-B895-C51A79D87C17}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9019,7 +9019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726D4EE7-92D0-4702-BBF1-C28E0C0DDE3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F360E4-3438-4E9C-A023-34A22A30B44C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10322,7 +10322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA3D38F-178A-47E0-BC01-6DF13D79E971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DF704F-106B-4D9B-9C60-8E55A8523A9E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11625,7 +11625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05C86BF-661A-482B-98DF-5ED0A29D3FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B6FA5D-AF7E-4D17-B6F8-87DD46CD6E0F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12928,7 +12928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C10BB1-6653-4D64-B86B-71E260DA3DF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75ACFCE-CA2D-4499-9EA5-3EBF5EFF0E64}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14217,7 +14217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47281CD9-8F51-448D-A982-5F83ACEDE4FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E30512-05E0-4427-91CC-7F3543DF5950}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15506,7 +15506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF6E4AC-F2F2-4679-AB44-7F94D9F4AD3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DF7C03-B863-4C11-AD02-94BB2318AFA5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
